--- a/database.xlsx
+++ b/database.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>login</t>
   </si>
@@ -25,10 +25,7 @@
     <t>imazit.lp</t>
   </si>
   <si>
-    <t>71e9e185-b2f3-4453-92f7-9430786999e3</t>
-  </si>
-  <si>
-    <t>2d8c37d3-6b4a-4e01-a364-dce46c5e0eda</t>
+    <t>6f12f3f9-78d7-4f9c-8b62-23bbc8f4f714</t>
   </si>
 </sst>
 </file>
@@ -386,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,14 +405,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>login</t>
   </si>
@@ -25,7 +25,13 @@
     <t>imazit.lp</t>
   </si>
   <si>
+    <t>paulowarley1</t>
+  </si>
+  <si>
     <t>6f12f3f9-78d7-4f9c-8b62-23bbc8f4f714</t>
+  </si>
+  <si>
+    <t>06152233-100a-4dc8-8bde-34d8246fcb8e</t>
   </si>
 </sst>
 </file>
@@ -383,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,7 +408,15 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/database.xlsx
+++ b/database.xlsx
@@ -31,7 +31,7 @@
     <t>6f12f3f9-78d7-4f9c-8b62-23bbc8f4f714</t>
   </si>
   <si>
-    <t>06152233-100a-4dc8-8bde-34d8246fcb8e</t>
+    <t>d29abc4b-74ce-44ed-82b7-720ced84a7e0</t>
   </si>
 </sst>
 </file>

--- a/database.xlsx
+++ b/database.xlsx
@@ -31,7 +31,7 @@
     <t>6f12f3f9-78d7-4f9c-8b62-23bbc8f4f714</t>
   </si>
   <si>
-    <t>d29abc4b-74ce-44ed-82b7-720ced84a7e0</t>
+    <t>317420e3-0e75-47f9-92e1-2630778d70ca</t>
   </si>
 </sst>
 </file>
